--- a/docs/スケジュール/2025-07-23スケジュール(2班pvt-cloud).xlsx
+++ b/docs/スケジュール/2025-07-23スケジュール(2班pvt-cloud).xlsx
@@ -656,7 +656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -734,6 +734,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,7 +1059,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="H4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1743,7 +1747,9 @@
       <c r="F24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H24" s="14"/>
       <c r="I24" s="8"/>
       <c r="J24" s="17"/>
@@ -1799,11 +1805,13 @@
       <c r="F26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H26" s="14"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
@@ -1855,7 +1863,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="8"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="8"/>
@@ -1911,7 +1919,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="8"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="20"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="8"/>
@@ -2025,138 +2033,138 @@
       <c r="R34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
@@ -3343,13 +3351,13 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>79</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -3476,7 +3484,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
       <c r="K5" s="8"/>
@@ -3501,7 +3509,7 @@
       <c r="G6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="8"/>
       <c r="J6" s="16"/>
       <c r="K6" s="8"/>
@@ -3532,7 +3540,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3588,7 +3596,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3613,7 +3621,7 @@
       <c r="G10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="8"/>
@@ -3642,7 +3650,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
@@ -3667,7 +3675,7 @@
       <c r="G12" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="8"/>
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
@@ -4851,82 +4859,82 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="28" t="n">
+      <c r="H2" s="29" t="n">
         <v>45804</v>
       </c>
-      <c r="I2" s="28" t="n">
+      <c r="I2" s="29" t="n">
         <v>45805</v>
       </c>
-      <c r="J2" s="28" t="n">
+      <c r="J2" s="29" t="n">
         <v>45806</v>
       </c>
-      <c r="K2" s="28" t="n">
+      <c r="K2" s="29" t="n">
         <v>45807</v>
       </c>
-      <c r="L2" s="28" t="n">
+      <c r="L2" s="29" t="n">
         <v>45808</v>
       </c>
-      <c r="M2" s="28" t="n">
+      <c r="M2" s="29" t="n">
         <v>45809</v>
       </c>
-      <c r="N2" s="28" t="n">
+      <c r="N2" s="29" t="n">
         <v>45810</v>
       </c>
-      <c r="O2" s="28" t="n">
+      <c r="O2" s="29" t="n">
         <v>45811</v>
       </c>
-      <c r="P2" s="28" t="n">
+      <c r="P2" s="29" t="n">
         <v>45812</v>
       </c>
-      <c r="Q2" s="28" t="n">
+      <c r="Q2" s="29" t="n">
         <v>45813</v>
       </c>
-      <c r="R2" s="28" t="n">
+      <c r="R2" s="29" t="n">
         <v>45814</v>
       </c>
-      <c r="S2" s="28" t="n">
+      <c r="S2" s="29" t="n">
         <v>45815</v>
       </c>
-      <c r="T2" s="28" t="n">
+      <c r="T2" s="29" t="n">
         <v>45816</v>
       </c>
-      <c r="U2" s="28" t="n">
+      <c r="U2" s="29" t="n">
         <v>45817</v>
       </c>
-      <c r="V2" s="28" t="n">
+      <c r="V2" s="29" t="n">
         <v>45818</v>
       </c>
-      <c r="W2" s="28" t="n">
+      <c r="W2" s="29" t="n">
         <v>45819</v>
       </c>
-      <c r="X2" s="28" t="n">
+      <c r="X2" s="29" t="n">
         <v>45820</v>
       </c>
-      <c r="Y2" s="28" t="n">
+      <c r="Y2" s="29" t="n">
         <v>45821</v>
       </c>
-      <c r="Z2" s="28" t="n">
+      <c r="Z2" s="29" t="n">
         <v>45822</v>
       </c>
-      <c r="AA2" s="28" t="n">
+      <c r="AA2" s="29" t="n">
         <v>45823</v>
       </c>
-      <c r="AB2" s="28" t="n">
+      <c r="AB2" s="29" t="n">
         <v>45824</v>
       </c>
-      <c r="AC2" s="28" t="n">
+      <c r="AC2" s="29" t="n">
         <v>45825</v>
       </c>
-      <c r="AD2" s="28" t="n">
+      <c r="AD2" s="29" t="n">
         <v>45826</v>
       </c>
-      <c r="AE2" s="28" t="n">
+      <c r="AE2" s="29" t="n">
         <v>45827</v>
       </c>
-      <c r="AF2" s="28" t="n">
+      <c r="AF2" s="29" t="n">
         <v>45828</v>
       </c>
-      <c r="AG2" s="28" t="n">
+      <c r="AG2" s="29" t="n">
         <v>45829</v>
       </c>
     </row>
@@ -4944,32 +4952,32 @@
         <v>25</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -4983,32 +4991,32 @@
       <c r="G4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
@@ -5024,16 +5032,16 @@
         <v>25</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -5060,19 +5068,19 @@
       <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="31" t="n">
+      <c r="G6" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -5104,16 +5112,16 @@
         <v>25</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -5143,16 +5151,16 @@
       <c r="G8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -5184,16 +5192,16 @@
         <v>25</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -5220,19 +5228,19 @@
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="31" t="n">
+      <c r="G10" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -5254,7 +5262,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -5264,16 +5272,16 @@
         <v>25</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -5303,16 +5311,16 @@
       <c r="G12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -5344,16 +5352,16 @@
         <v>25</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -5380,19 +5388,19 @@
       <c r="F14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="31" t="n">
+      <c r="G14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -5424,16 +5432,16 @@
         <v>25</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -5463,16 +5471,16 @@
       <c r="G16" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -5504,16 +5512,16 @@
         <v>25</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -5540,19 +5548,19 @@
       <c r="F18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="31" t="n">
+      <c r="G18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -5584,16 +5592,16 @@
         <v>25</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -5623,16 +5631,16 @@
       <c r="G20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -5664,16 +5672,16 @@
         <v>25</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -5700,19 +5708,19 @@
       <c r="F22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="31" t="n">
+      <c r="G22" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
@@ -5744,16 +5752,16 @@
         <v>25</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -5783,16 +5791,16 @@
       <c r="G24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -5814,7 +5822,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -5824,16 +5832,16 @@
         <v>25</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -5860,19 +5868,19 @@
       <c r="F26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="31" t="n">
+      <c r="G26" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -5904,16 +5912,16 @@
         <v>25</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -5943,16 +5951,16 @@
       <c r="G28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -5984,16 +5992,16 @@
         <v>25</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -6020,19 +6028,19 @@
       <c r="F30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="31" t="n">
+      <c r="G30" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -6064,16 +6072,16 @@
         <v>25</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -6103,16 +6111,16 @@
       <c r="G32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
@@ -6131,106 +6139,106 @@
       <c r="AG32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="34"/>
+      <c r="C51" s="35"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="34"/>
+      <c r="C52" s="35"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7229,46 +7237,46 @@
       <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="28" t="n">
+      <c r="G2" s="29" t="n">
         <v>45835</v>
       </c>
-      <c r="H2" s="28" t="n">
+      <c r="H2" s="29" t="n">
         <v>45839</v>
       </c>
-      <c r="I2" s="28" t="n">
+      <c r="I2" s="29" t="n">
         <v>45840</v>
       </c>
-      <c r="J2" s="28" t="n">
+      <c r="J2" s="29" t="n">
         <v>45841</v>
       </c>
-      <c r="K2" s="28" t="n">
+      <c r="K2" s="29" t="n">
         <v>45842</v>
       </c>
-      <c r="L2" s="28" t="n">
+      <c r="L2" s="29" t="n">
         <v>45846</v>
       </c>
-      <c r="M2" s="28" t="n">
+      <c r="M2" s="29" t="n">
         <v>45847</v>
       </c>
-      <c r="N2" s="28" t="n">
+      <c r="N2" s="29" t="n">
         <v>45848</v>
       </c>
-      <c r="O2" s="28" t="n">
+      <c r="O2" s="29" t="n">
         <v>45849</v>
       </c>
-      <c r="P2" s="28" t="n">
+      <c r="P2" s="29" t="n">
         <v>45853</v>
       </c>
-      <c r="Q2" s="28" t="n">
+      <c r="Q2" s="29" t="n">
         <v>45854</v>
       </c>
-      <c r="R2" s="28" t="n">
+      <c r="R2" s="29" t="n">
         <v>45855</v>
       </c>
-      <c r="S2" s="28" t="n">
+      <c r="S2" s="29" t="n">
         <v>45856</v>
       </c>
-      <c r="T2" s="28" t="n">
+      <c r="T2" s="29" t="n">
         <v>45860</v>
       </c>
     </row>
@@ -7289,20 +7297,20 @@
         <v>25</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -7315,20 +7323,20 @@
       <c r="F4" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -7347,20 +7355,20 @@
         <v>25</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
@@ -7370,23 +7378,23 @@
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
@@ -7403,20 +7411,20 @@
         <v>25</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -7426,26 +7434,26 @@
       <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -7460,19 +7468,19 @@
       <c r="G9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
@@ -7483,20 +7491,20 @@
         <v>26</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
@@ -7513,20 +7521,20 @@
         <v>25</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -7539,20 +7547,20 @@
       <c r="F12" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -7567,20 +7575,20 @@
         <v>25</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -7590,23 +7598,23 @@
       <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="31" t="n">
+      <c r="F14" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
@@ -7621,20 +7629,20 @@
         <v>25</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
@@ -7647,20 +7655,20 @@
       <c r="F16" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -7677,20 +7685,20 @@
         <v>25</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -7701,20 +7709,20 @@
         <v>26</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -7729,20 +7737,20 @@
         <v>25</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -7752,21 +7760,21 @@
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
@@ -7781,20 +7789,20 @@
         <v>25</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
@@ -7805,20 +7813,20 @@
         <v>26</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17"/>
@@ -7834,21 +7842,21 @@
       <c r="E23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
@@ -7858,23 +7866,23 @@
       <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="31" t="n">
+      <c r="F24" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
@@ -7889,20 +7897,20 @@
         <v>25</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
@@ -7915,20 +7923,20 @@
       <c r="F26" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
@@ -7947,20 +7955,20 @@
         <v>25</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
@@ -7973,20 +7981,20 @@
       <c r="F28" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17"/>
@@ -8003,20 +8011,20 @@
         <v>25</v>
       </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
@@ -8029,20 +8037,20 @@
       <c r="F30" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17"/>
@@ -8057,20 +8065,20 @@
         <v>25</v>
       </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
@@ -8083,20 +8091,20 @@
       <c r="F32" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17"/>
@@ -8111,20 +8119,20 @@
         <v>25</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
@@ -8137,20 +8145,20 @@
       <c r="F34" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
@@ -8165,20 +8173,20 @@
         <v>25</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
@@ -8191,20 +8199,20 @@
       <c r="F36" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
@@ -8219,20 +8227,20 @@
         <v>25</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
@@ -8245,20 +8253,20 @@
       <c r="F38" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
@@ -8275,20 +8283,20 @@
         <v>25</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
@@ -8301,20 +8309,20 @@
       <c r="F40" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
@@ -8329,20 +8337,20 @@
         <v>25</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
@@ -8353,20 +8361,20 @@
         <v>26</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
@@ -8381,20 +8389,20 @@
         <v>25</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
@@ -8405,20 +8413,20 @@
         <v>26</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
@@ -8435,20 +8443,20 @@
         <v>25</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="17"/>
@@ -8461,20 +8469,20 @@
       <c r="F46" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
@@ -8489,20 +8497,20 @@
         <v>25</v>
       </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
@@ -8515,20 +8523,20 @@
       <c r="F48" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
@@ -8543,20 +8551,20 @@
         <v>25</v>
       </c>
       <c r="F49" s="10"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
@@ -8569,20 +8577,20 @@
       <c r="F50" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
@@ -8597,20 +8605,20 @@
         <v>25</v>
       </c>
       <c r="F51" s="10"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
@@ -8623,20 +8631,20 @@
       <c r="F52" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
@@ -8651,20 +8659,20 @@
         <v>25</v>
       </c>
       <c r="F53" s="10"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
@@ -8677,20 +8685,20 @@
       <c r="F54" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
@@ -8705,20 +8713,20 @@
         <v>25</v>
       </c>
       <c r="F55" s="10"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
@@ -8731,20 +8739,20 @@
       <c r="F56" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
@@ -8759,20 +8767,20 @@
         <v>25</v>
       </c>
       <c r="F57" s="10"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
@@ -8785,20 +8793,20 @@
       <c r="F58" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
@@ -8813,20 +8821,20 @@
         <v>25</v>
       </c>
       <c r="F59" s="10"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
@@ -8839,20 +8847,20 @@
       <c r="F60" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
@@ -8867,20 +8875,20 @@
         <v>25</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
@@ -8893,20 +8901,20 @@
       <c r="F62" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
@@ -8921,20 +8929,20 @@
         <v>25</v>
       </c>
       <c r="F63" s="10"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
@@ -8947,20 +8955,20 @@
       <c r="F64" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
@@ -8975,20 +8983,20 @@
         <v>25</v>
       </c>
       <c r="F65" s="10"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
@@ -9001,20 +9009,20 @@
       <c r="F66" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
